--- a/test-spreadsheet-1.xlsx
+++ b/test-spreadsheet-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxim/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861F370F-A39C-B844-9994-F384090EA92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49694E77-30B2-1446-8C9F-8DE34D919D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{400E7C96-D970-0B44-93AC-82D43345EAD7}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>This is the first line</t>
   </si>
   <si>
     <t>Second line</t>
+  </si>
+  <si>
+    <t>Third line</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A815D72-D19E-4348-8B62-C18987E73192}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +440,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
